--- a/generador/alcance_G6C031.xlsx
+++ b/generador/alcance_G6C031.xlsx
@@ -563,7 +563,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05c43a15fc8307ea6e0daf694a6f160a</t>
+          <t>e039194f82e0825e5014d38307752a87</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -651,7 +651,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="X2" t="inlineStr"/>
